--- a/data-raw/dictionary.xlsx
+++ b/data-raw/dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sloos\Documents\git-repositories\durbanplasticwaste\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE226E9-9F4C-4EA3-BF42-F4B8AB1FDFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C85E05-A5B1-49BE-9A32-E9FB8D99DD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15612" yWindow="0" windowWidth="7524" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1170" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
   <si>
     <t>directory</t>
   </si>
@@ -49,9 +49,6 @@
     <t>double</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>place</t>
   </si>
   <si>
@@ -118,34 +115,37 @@
     <t>Amount of polystyrene (PS) in kg.</t>
   </si>
   <si>
-    <t>Amount of other plastics in kg.</t>
-  </si>
-  <si>
-    <t>Amount of other waste in kg.</t>
-  </si>
-  <si>
     <t>Amount of glass in kg.</t>
   </si>
   <si>
     <t>Amount of shoes in kg.</t>
   </si>
   <si>
-    <t>Number of shoes.</t>
-  </si>
-  <si>
     <t>Number of bags that where collected.</t>
   </si>
   <si>
-    <t>Categorical variable shwoing whether the collection was done at the beach (TRUE) or at the a litterboom (FALSE).</t>
-  </si>
-  <si>
     <t>Additional information about the sampled data.</t>
   </si>
   <si>
-    <t xml:space="preserve">Amount of polyethylene (PE) in kg. HDPE and LDPE plastics are defined as PE plastics. </t>
-  </si>
-  <si>
-    <t>xxxx</t>
+    <t xml:space="preserve">Amount of other plastics in kg. The category ‘Other plastics’ included plastics that couldn’t be identified by the scanner or plastics that are in such small amounts the weighing scale could not distinguish it. </t>
+  </si>
+  <si>
+    <t>Number of shoes found at the location. Surprisingly a lot of shoes were found. As they often consisted of a combination of different plastics then a separate category was made for shoes.</t>
+  </si>
+  <si>
+    <t>Categorical variable showing whether the collection was done at the beach (TRUE) or at the a litterboom (FALSE).</t>
+  </si>
+  <si>
+    <t>Amount of other waste in kg remaining at the end of the categorization.</t>
+  </si>
+  <si>
+    <t>Amount of high-density polyethylene (HDPE) and polypropylene (PP) combined weight in kg. During the sorting process these two plastics were not distinguished.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount of polyethylene (PE) in kg. During the sorting process HDPE and LDPE plastics were not distinguished. </t>
+  </si>
+  <si>
+    <t>hdpe_pp</t>
   </si>
 </sst>
 </file>
@@ -181,8 +181,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,19 +482,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" activeCellId="1" sqref="L16 F5"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="94.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -522,69 +526,69 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -593,7 +597,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -601,181 +605,177 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="L9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
         <v>33</v>
       </c>
-      <c r="L10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
         <v>34</v>
-      </c>
-      <c r="L11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/dictionary.xlsx
+++ b/data-raw/dictionary.xlsx
@@ -1,158 +1,223 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sloos\Documents\git-repositories\durbanplasticwaste\data-raw\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C85E05-A5B1-49BE-9A32-E9FB8D99DD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1170" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
-  <si>
-    <t>directory</t>
-  </si>
-  <si>
-    <t>file_name</t>
-  </si>
-  <si>
-    <t>variable_name</t>
-  </si>
-  <si>
-    <t>variable_type</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>data/</t>
-  </si>
-  <si>
-    <t>types.rda</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>character</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>pet</t>
-  </si>
-  <si>
-    <t>pe</t>
-  </si>
-  <si>
-    <t>pp</t>
-  </si>
-  <si>
-    <t>ps</t>
-  </si>
-  <si>
-    <t>other_plastics</t>
-  </si>
-  <si>
-    <t>other_waste</t>
-  </si>
-  <si>
-    <t>glass</t>
-  </si>
-  <si>
-    <t>shoes</t>
-  </si>
-  <si>
-    <t>shoes_quantity</t>
-  </si>
-  <si>
-    <t>bag_quantity</t>
-  </si>
-  <si>
-    <t>beach</t>
-  </si>
-  <si>
-    <t>logical</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>Collection date of the data</t>
-  </si>
-  <si>
-    <t>Place where the collection was done</t>
-  </si>
-  <si>
-    <t>Total amount of waste chategorized in kg.</t>
-  </si>
-  <si>
-    <t>Amount of polyethylene terephthalate (PET) in kg.</t>
-  </si>
-  <si>
-    <t>Amount of polypropylene (PP) in kg.</t>
-  </si>
-  <si>
-    <t>Amount of polystyrene (PS) in kg.</t>
-  </si>
-  <si>
-    <t>Amount of glass in kg.</t>
-  </si>
-  <si>
-    <t>Amount of shoes in kg.</t>
-  </si>
-  <si>
-    <t>Number of bags that where collected.</t>
-  </si>
-  <si>
-    <t>Additional information about the sampled data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount of other plastics in kg. The category ‘Other plastics’ included plastics that couldn’t be identified by the scanner or plastics that are in such small amounts the weighing scale could not distinguish it. </t>
-  </si>
-  <si>
-    <t>Number of shoes found at the location. Surprisingly a lot of shoes were found. As they often consisted of a combination of different plastics then a separate category was made for shoes.</t>
-  </si>
-  <si>
-    <t>Categorical variable showing whether the collection was done at the beach (TRUE) or at the a litterboom (FALSE).</t>
-  </si>
-  <si>
-    <t>Amount of other waste in kg remaining at the end of the categorization.</t>
-  </si>
-  <si>
-    <t>Amount of high-density polyethylene (HDPE) and polypropylene (PP) combined weight in kg. During the sorting process these two plastics were not distinguished.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount of polyethylene (PE) in kg. During the sorting process HDPE and LDPE plastics were not distinguished. </t>
-  </si>
-  <si>
-    <t>hdpe_pp</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+  <si>
+    <t xml:space="preserve">directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">litterboom_counts.rda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of the collected litterboom sample.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descriptive name of the sample location. See [`locations`] for longitude and latitude.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand name of the collected item (e.g. Coca Cola).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group name that owns the brand (e.g. Coca Cola Beverages South Africa).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plastic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of plastic of the item (identified plastic types are PET; HDPE; and PP. HDPE and PP were categorised together as HDPE/PP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categorisation of waste into 15 product type categories (e.g. Alcohol; Milk; Tobacco; Water).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of counted items.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">litterboom_weights.rda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descriptive name of the sample location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight (in kg) of PET items.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hpde_pp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">locations.rda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latitude coordinate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitude coordinate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plastic_types.rda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collection date of the data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Place where the collection was done.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">double</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total amount of waste chategorized in kg.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount of polyethylene terephthalate (PET) in kg.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount of polyethylene (PE) in kg. During the sorting process HDPE and LDPE plastics were not distinguished.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount of polypropylene (PP) in kg.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount of polystyrene (PS) in kg.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hdpe_pp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount of high-density polyethylene (HDPE) and polypropylene (PP) combined weight in kg. During the sorting process these two plastics were not distinguished.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_plastics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount of other plastics in kg. The category ‘Other plastics’ included plastics that couldn’t be identified by the scanner or plastics that are in such small amounts the weighing scale could not distinguish it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_waste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount of other waste in kg remaining at the end of the categorization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount of glass in kg.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount of shoes in kg.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shoes_quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of shoes found at the location. Surprisingly a lot of shoes were found. As they often consisted of a combination of different plastics then a separate category was made for shoes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bag_quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of bags that where collected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categorical variable showing whether the collection was done at the beach (TRUE) or at the a litterboom (FALSE).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional information about the sampled data.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -181,25 +246,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -481,21 +534,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="94.88671875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -523,13 +569,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -543,10 +589,10 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -554,16 +600,16 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -571,16 +617,16 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -588,16 +634,16 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -605,16 +651,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -622,164 +668,408 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="s">
+    <row r="15">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>